--- a/_Archive/inharmonicite.xlsx
+++ b/_Archive/inharmonicite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbertello/Programmes/accordage/_Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FBA793-5CB6-F243-808B-EDF00B1C4816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E42F6C-FA55-1F4B-8D7F-7D01E0BF0AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="740" windowWidth="28800" windowHeight="16400" activeTab="11" xr2:uid="{2783D1FA-4770-7048-881C-C9C03C723440}"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="12" xr2:uid="{2783D1FA-4770-7048-881C-C9C03C723440}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,14 @@
     <sheet name="Comparaison" sheetId="11" r:id="rId10"/>
     <sheet name="Feuil6" sheetId="12" r:id="rId11"/>
     <sheet name="Feuil8" sheetId="13" r:id="rId12"/>
+    <sheet name="Feuil9" sheetId="14" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil9!$A$3:$A$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil9!$B$3:$B$15</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Feuil9!$A$3:$A$15</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Feuil9!$B$3:$B$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>f</t>
   </si>
@@ -139,6 +146,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil9!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil9!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>335.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>425.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF17-9849-B9FD-B20F280F88FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1716835920"/>
+        <c:axId val="1716837568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1716835920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1716837568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1716837568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1716835920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CBD6F5-FE3D-8549-AE85-20730A664E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5404,7 +6368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4F0D64-A39C-6643-ADF3-9851E1D0BD9A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5620,6 +6584,190 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED0E679-E71E-6644-8AC9-3191F6B0887F}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28.8</v>
+      </c>
+      <c r="C3">
+        <f>$B$3*A3*2^(D1*(A3^2-1)/1200)</f>
+        <v>28.8</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">LINEST(A3:A15,B3:B15)</f>
+        <v>3.043065581677009E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>53.7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C15" si="0">$B$3*A4*2^(D2*(A4^2-1)/1200)</f>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>82.6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>110.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>163.9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>192.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>221.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>248.3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>277.2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>335.4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>316.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>393.9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>345.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>425.3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>374.40000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_Archive/inharmonicite.xlsx
+++ b/_Archive/inharmonicite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbertello/Programmes/accordage/_Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E42F6C-FA55-1F4B-8D7F-7D01E0BF0AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23027608-3B25-974D-8A48-FCA8A543268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="12" xr2:uid="{2783D1FA-4770-7048-881C-C9C03C723440}"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="13" xr2:uid="{2783D1FA-4770-7048-881C-C9C03C723440}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,8 @@
     <sheet name="Feuil6" sheetId="12" r:id="rId11"/>
     <sheet name="Feuil8" sheetId="13" r:id="rId12"/>
     <sheet name="Feuil9" sheetId="14" r:id="rId13"/>
+    <sheet name="Frequencies" sheetId="15" r:id="rId14"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil9!$A$3:$A$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil9!$B$3:$B$15</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Feuil9!$A$3:$A$15</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Feuil9!$B$3:$B$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="625">
   <si>
     <t>f</t>
   </si>
@@ -82,6 +77,1851 @@
   </si>
   <si>
     <t>4e partiel</t>
+  </si>
+  <si>
+    <t>439.2</t>
+  </si>
+  <si>
+    <t>880.87</t>
+  </si>
+  <si>
+    <t>1323.93</t>
+  </si>
+  <si>
+    <t>1768.83</t>
+  </si>
+  <si>
+    <t>2216.23</t>
+  </si>
+  <si>
+    <t>2669.7</t>
+  </si>
+  <si>
+    <t>219.93</t>
+  </si>
+  <si>
+    <t>439.73</t>
+  </si>
+  <si>
+    <t>660.3</t>
+  </si>
+  <si>
+    <t>925.03</t>
+  </si>
+  <si>
+    <t>1103.2</t>
+  </si>
+  <si>
+    <t>1326.13</t>
+  </si>
+  <si>
+    <t>174.33</t>
+  </si>
+  <si>
+    <t>348.77</t>
+  </si>
+  <si>
+    <t>523.47</t>
+  </si>
+  <si>
+    <t>699.67</t>
+  </si>
+  <si>
+    <t>875.67</t>
+  </si>
+  <si>
+    <t>1050.6</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>554.63</t>
+  </si>
+  <si>
+    <t>832.27</t>
+  </si>
+  <si>
+    <t>1110.7</t>
+  </si>
+  <si>
+    <t>1389.43</t>
+  </si>
+  <si>
+    <t>1673.7</t>
+  </si>
+  <si>
+    <t>349.3</t>
+  </si>
+  <si>
+    <t>698.6</t>
+  </si>
+  <si>
+    <t>1049.0</t>
+  </si>
+  <si>
+    <t>1400.33</t>
+  </si>
+  <si>
+    <t>1755.4</t>
+  </si>
+  <si>
+    <t>2111.2</t>
+  </si>
+  <si>
+    <t>207.57</t>
+  </si>
+  <si>
+    <t>415.3</t>
+  </si>
+  <si>
+    <t>622.57</t>
+  </si>
+  <si>
+    <t>832.53</t>
+  </si>
+  <si>
+    <t>1041.87</t>
+  </si>
+  <si>
+    <t>1252.3</t>
+  </si>
+  <si>
+    <t>261.63</t>
+  </si>
+  <si>
+    <t>523.07</t>
+  </si>
+  <si>
+    <t>786.37</t>
+  </si>
+  <si>
+    <t>1047.67</t>
+  </si>
+  <si>
+    <t>1312.9</t>
+  </si>
+  <si>
+    <t>1577.03</t>
+  </si>
+  <si>
+    <t>329.47</t>
+  </si>
+  <si>
+    <t>660.13</t>
+  </si>
+  <si>
+    <t>991.63</t>
+  </si>
+  <si>
+    <t>1323.6</t>
+  </si>
+  <si>
+    <t>1655.13</t>
+  </si>
+  <si>
+    <t>1989.7</t>
+  </si>
+  <si>
+    <t>195.27</t>
+  </si>
+  <si>
+    <t>392.2</t>
+  </si>
+  <si>
+    <t>588.5</t>
+  </si>
+  <si>
+    <t>784.53</t>
+  </si>
+  <si>
+    <t>981.8</t>
+  </si>
+  <si>
+    <t>1180.83</t>
+  </si>
+  <si>
+    <t>247.17</t>
+  </si>
+  <si>
+    <t>494.5</t>
+  </si>
+  <si>
+    <t>742.07</t>
+  </si>
+  <si>
+    <t>990.57</t>
+  </si>
+  <si>
+    <t>1239.23</t>
+  </si>
+  <si>
+    <t>1488.63</t>
+  </si>
+  <si>
+    <t>310.83</t>
+  </si>
+  <si>
+    <t>623.0</t>
+  </si>
+  <si>
+    <t>933.57</t>
+  </si>
+  <si>
+    <t>1246.37</t>
+  </si>
+  <si>
+    <t>1560.77</t>
+  </si>
+  <si>
+    <t>1877.37</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>369.87</t>
+  </si>
+  <si>
+    <t>555.43</t>
+  </si>
+  <si>
+    <t>741.03</t>
+  </si>
+  <si>
+    <t>927.23</t>
+  </si>
+  <si>
+    <t>1113.7</t>
+  </si>
+  <si>
+    <t>233.27</t>
+  </si>
+  <si>
+    <t>466.23</t>
+  </si>
+  <si>
+    <t>699.33</t>
+  </si>
+  <si>
+    <t>934.13</t>
+  </si>
+  <si>
+    <t>1168.57</t>
+  </si>
+  <si>
+    <t>1405.0</t>
+  </si>
+  <si>
+    <t>293.8</t>
+  </si>
+  <si>
+    <t>587.83</t>
+  </si>
+  <si>
+    <t>881.47</t>
+  </si>
+  <si>
+    <t>1178.0</t>
+  </si>
+  <si>
+    <t>1473.53</t>
+  </si>
+  <si>
+    <t>1772.03</t>
+  </si>
+  <si>
+    <t>369.93</t>
+  </si>
+  <si>
+    <t>740.03</t>
+  </si>
+  <si>
+    <t>1113.23</t>
+  </si>
+  <si>
+    <t>1484.47</t>
+  </si>
+  <si>
+    <t>1863.37</t>
+  </si>
+  <si>
+    <t>2241.77</t>
+  </si>
+  <si>
+    <t>391.77</t>
+  </si>
+  <si>
+    <t>783.5</t>
+  </si>
+  <si>
+    <t>1179.17</t>
+  </si>
+  <si>
+    <t>1575.57</t>
+  </si>
+  <si>
+    <t>1974.83</t>
+  </si>
+  <si>
+    <t>2373.8</t>
+  </si>
+  <si>
+    <t>415.63</t>
+  </si>
+  <si>
+    <t>831.8</t>
+  </si>
+  <si>
+    <t>1248.63</t>
+  </si>
+  <si>
+    <t>1669.13</t>
+  </si>
+  <si>
+    <t>2089.3</t>
+  </si>
+  <si>
+    <t>2515.43</t>
+  </si>
+  <si>
+    <t>164.63</t>
+  </si>
+  <si>
+    <t>329.8</t>
+  </si>
+  <si>
+    <t>494.77</t>
+  </si>
+  <si>
+    <t>659.43</t>
+  </si>
+  <si>
+    <t>824.13</t>
+  </si>
+  <si>
+    <t>991.43</t>
+  </si>
+  <si>
+    <t>154.97</t>
+  </si>
+  <si>
+    <t>311.2</t>
+  </si>
+  <si>
+    <t>466.53</t>
+  </si>
+  <si>
+    <t>623.3</t>
+  </si>
+  <si>
+    <t>778.37</t>
+  </si>
+  <si>
+    <t>934.2</t>
+  </si>
+  <si>
+    <t>146.73</t>
+  </si>
+  <si>
+    <t>294.37</t>
+  </si>
+  <si>
+    <t>441.07</t>
+  </si>
+  <si>
+    <t>587.4</t>
+  </si>
+  <si>
+    <t>735.17</t>
+  </si>
+  <si>
+    <t>882.03</t>
+  </si>
+  <si>
+    <t>138.97</t>
+  </si>
+  <si>
+    <t>276.6</t>
+  </si>
+  <si>
+    <t>415.07</t>
+  </si>
+  <si>
+    <t>553.73</t>
+  </si>
+  <si>
+    <t>693.7</t>
+  </si>
+  <si>
+    <t>832.47</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>261.9</t>
+  </si>
+  <si>
+    <t>392.27</t>
+  </si>
+  <si>
+    <t>523.8</t>
+  </si>
+  <si>
+    <t>653.97</t>
+  </si>
+  <si>
+    <t>785.13</t>
+  </si>
+  <si>
+    <t>917.53</t>
+  </si>
+  <si>
+    <t>1048.87</t>
+  </si>
+  <si>
+    <t>1181.87</t>
+  </si>
+  <si>
+    <t>123.43</t>
+  </si>
+  <si>
+    <t>248.3</t>
+  </si>
+  <si>
+    <t>371.47</t>
+  </si>
+  <si>
+    <t>617.77</t>
+  </si>
+  <si>
+    <t>742.57</t>
+  </si>
+  <si>
+    <t>866.67</t>
+  </si>
+  <si>
+    <t>990.5</t>
+  </si>
+  <si>
+    <t>1116.27</t>
+  </si>
+  <si>
+    <t>115.8</t>
+  </si>
+  <si>
+    <t>233.47</t>
+  </si>
+  <si>
+    <t>349.9</t>
+  </si>
+  <si>
+    <t>583.13</t>
+  </si>
+  <si>
+    <t>700.37</t>
+  </si>
+  <si>
+    <t>817.6</t>
+  </si>
+  <si>
+    <t>935.5</t>
+  </si>
+  <si>
+    <t>1052.03</t>
+  </si>
+  <si>
+    <t>108.87</t>
+  </si>
+  <si>
+    <t>220.03</t>
+  </si>
+  <si>
+    <t>329.67</t>
+  </si>
+  <si>
+    <t>440.13</t>
+  </si>
+  <si>
+    <t>549.83</t>
+  </si>
+  <si>
+    <t>659.83</t>
+  </si>
+  <si>
+    <t>770.9</t>
+  </si>
+  <si>
+    <t>992.6</t>
+  </si>
+  <si>
+    <t>103.17</t>
+  </si>
+  <si>
+    <t>207.3</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>416.53</t>
+  </si>
+  <si>
+    <t>518.87</t>
+  </si>
+  <si>
+    <t>624.13</t>
+  </si>
+  <si>
+    <t>727.47</t>
+  </si>
+  <si>
+    <t>832.3</t>
+  </si>
+  <si>
+    <t>938.1</t>
+  </si>
+  <si>
+    <t>97.8</t>
+  </si>
+  <si>
+    <t>195.33</t>
+  </si>
+  <si>
+    <t>293.4</t>
+  </si>
+  <si>
+    <t>392.5</t>
+  </si>
+  <si>
+    <t>489.97</t>
+  </si>
+  <si>
+    <t>587.27</t>
+  </si>
+  <si>
+    <t>685.57</t>
+  </si>
+  <si>
+    <t>785.2</t>
+  </si>
+  <si>
+    <t>883.07</t>
+  </si>
+  <si>
+    <t>92.93</t>
+  </si>
+  <si>
+    <t>184.97</t>
+  </si>
+  <si>
+    <t>277.77</t>
+  </si>
+  <si>
+    <t>369.97</t>
+  </si>
+  <si>
+    <t>462.87</t>
+  </si>
+  <si>
+    <t>555.87</t>
+  </si>
+  <si>
+    <t>648.07</t>
+  </si>
+  <si>
+    <t>742.1</t>
+  </si>
+  <si>
+    <t>835.1</t>
+  </si>
+  <si>
+    <t>86.93</t>
+  </si>
+  <si>
+    <t>175.23</t>
+  </si>
+  <si>
+    <t>261.47</t>
+  </si>
+  <si>
+    <t>349.27</t>
+  </si>
+  <si>
+    <t>436.4</t>
+  </si>
+  <si>
+    <t>524.6</t>
+  </si>
+  <si>
+    <t>612.13</t>
+  </si>
+  <si>
+    <t>699.8</t>
+  </si>
+  <si>
+    <t>788.13</t>
+  </si>
+  <si>
+    <t>82.3</t>
+  </si>
+  <si>
+    <t>167.7</t>
+  </si>
+  <si>
+    <t>246.4</t>
+  </si>
+  <si>
+    <t>328.67</t>
+  </si>
+  <si>
+    <t>412.03</t>
+  </si>
+  <si>
+    <t>494.57</t>
+  </si>
+  <si>
+    <t>576.9</t>
+  </si>
+  <si>
+    <t>660.2</t>
+  </si>
+  <si>
+    <t>742.5</t>
+  </si>
+  <si>
+    <t>77.4</t>
+  </si>
+  <si>
+    <t>155.63</t>
+  </si>
+  <si>
+    <t>233.03</t>
+  </si>
+  <si>
+    <t>311.13</t>
+  </si>
+  <si>
+    <t>389.7</t>
+  </si>
+  <si>
+    <t>466.57</t>
+  </si>
+  <si>
+    <t>544.17</t>
+  </si>
+  <si>
+    <t>622.9</t>
+  </si>
+  <si>
+    <t>701.0</t>
+  </si>
+  <si>
+    <t>72.97</t>
+  </si>
+  <si>
+    <t>146.43</t>
+  </si>
+  <si>
+    <t>220.27</t>
+  </si>
+  <si>
+    <t>293.43</t>
+  </si>
+  <si>
+    <t>366.73</t>
+  </si>
+  <si>
+    <t>440.5</t>
+  </si>
+  <si>
+    <t>513.17</t>
+  </si>
+  <si>
+    <t>587.5</t>
+  </si>
+  <si>
+    <t>661.1</t>
+  </si>
+  <si>
+    <t>68.83</t>
+  </si>
+  <si>
+    <t>139.63</t>
+  </si>
+  <si>
+    <t>207.53</t>
+  </si>
+  <si>
+    <t>276.93</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>415.2</t>
+  </si>
+  <si>
+    <t>485.43</t>
+  </si>
+  <si>
+    <t>555.07</t>
+  </si>
+  <si>
+    <t>624.8</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>130.07</t>
+  </si>
+  <si>
+    <t>195.23</t>
+  </si>
+  <si>
+    <t>261.07</t>
+  </si>
+  <si>
+    <t>327.2</t>
+  </si>
+  <si>
+    <t>391.97</t>
+  </si>
+  <si>
+    <t>457.53</t>
+  </si>
+  <si>
+    <t>524.57</t>
+  </si>
+  <si>
+    <t>589.77</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>122.6</t>
+  </si>
+  <si>
+    <t>184.67</t>
+  </si>
+  <si>
+    <t>247.1</t>
+  </si>
+  <si>
+    <t>311.1</t>
+  </si>
+  <si>
+    <t>376.23</t>
+  </si>
+  <si>
+    <t>410.5</t>
+  </si>
+  <si>
+    <t>476.2</t>
+  </si>
+  <si>
+    <t>578.97</t>
+  </si>
+  <si>
+    <t>613.87</t>
+  </si>
+  <si>
+    <t>650.93</t>
+  </si>
+  <si>
+    <t>724.6</t>
+  </si>
+  <si>
+    <t>58.63</t>
+  </si>
+  <si>
+    <t>116.5</t>
+  </si>
+  <si>
+    <t>174.3</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>295.3</t>
+  </si>
+  <si>
+    <t>356.3</t>
+  </si>
+  <si>
+    <t>388.9</t>
+  </si>
+  <si>
+    <t>451.0</t>
+  </si>
+  <si>
+    <t>548.93</t>
+  </si>
+  <si>
+    <t>583.7</t>
+  </si>
+  <si>
+    <t>651.23</t>
+  </si>
+  <si>
+    <t>685.1</t>
+  </si>
+  <si>
+    <t>54.63</t>
+  </si>
+  <si>
+    <t>109.47</t>
+  </si>
+  <si>
+    <t>164.3</t>
+  </si>
+  <si>
+    <t>220.5</t>
+  </si>
+  <si>
+    <t>277.63</t>
+  </si>
+  <si>
+    <t>334.9</t>
+  </si>
+  <si>
+    <t>395.47</t>
+  </si>
+  <si>
+    <t>424.27</t>
+  </si>
+  <si>
+    <t>517.57</t>
+  </si>
+  <si>
+    <t>549.13</t>
+  </si>
+  <si>
+    <t>579.83</t>
+  </si>
+  <si>
+    <t>679.23</t>
+  </si>
+  <si>
+    <t>51.93</t>
+  </si>
+  <si>
+    <t>103.87</t>
+  </si>
+  <si>
+    <t>154.87</t>
+  </si>
+  <si>
+    <t>207.1</t>
+  </si>
+  <si>
+    <t>259.43</t>
+  </si>
+  <si>
+    <t>311.4</t>
+  </si>
+  <si>
+    <t>363.57</t>
+  </si>
+  <si>
+    <t>416.33</t>
+  </si>
+  <si>
+    <t>468.53</t>
+  </si>
+  <si>
+    <t>48.23</t>
+  </si>
+  <si>
+    <t>97.5</t>
+  </si>
+  <si>
+    <t>145.73</t>
+  </si>
+  <si>
+    <t>196.17</t>
+  </si>
+  <si>
+    <t>244.37</t>
+  </si>
+  <si>
+    <t>293.97</t>
+  </si>
+  <si>
+    <t>343.03</t>
+  </si>
+  <si>
+    <t>393.37</t>
+  </si>
+  <si>
+    <t>443.17</t>
+  </si>
+  <si>
+    <t>45.17</t>
+  </si>
+  <si>
+    <t>92.43</t>
+  </si>
+  <si>
+    <t>137.43</t>
+  </si>
+  <si>
+    <t>183.73</t>
+  </si>
+  <si>
+    <t>229.87</t>
+  </si>
+  <si>
+    <t>275.8</t>
+  </si>
+  <si>
+    <t>323.23</t>
+  </si>
+  <si>
+    <t>416.73</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>86.27</t>
+  </si>
+  <si>
+    <t>130.63</t>
+  </si>
+  <si>
+    <t>175.2</t>
+  </si>
+  <si>
+    <t>217.17</t>
+  </si>
+  <si>
+    <t>262.07</t>
+  </si>
+  <si>
+    <t>305.6</t>
+  </si>
+  <si>
+    <t>349.17</t>
+  </si>
+  <si>
+    <t>393.73</t>
+  </si>
+  <si>
+    <t>439.07</t>
+  </si>
+  <si>
+    <t>483.87</t>
+  </si>
+  <si>
+    <t>524.23</t>
+  </si>
+  <si>
+    <t>40.87</t>
+  </si>
+  <si>
+    <t>82.17</t>
+  </si>
+  <si>
+    <t>122.23</t>
+  </si>
+  <si>
+    <t>163.33</t>
+  </si>
+  <si>
+    <t>204.93</t>
+  </si>
+  <si>
+    <t>245.3</t>
+  </si>
+  <si>
+    <t>287.23</t>
+  </si>
+  <si>
+    <t>328.9</t>
+  </si>
+  <si>
+    <t>370.13</t>
+  </si>
+  <si>
+    <t>413.47</t>
+  </si>
+  <si>
+    <t>455.07</t>
+  </si>
+  <si>
+    <t>498.3</t>
+  </si>
+  <si>
+    <t>39.13</t>
+  </si>
+  <si>
+    <t>77.03</t>
+  </si>
+  <si>
+    <t>116.23</t>
+  </si>
+  <si>
+    <t>154.37</t>
+  </si>
+  <si>
+    <t>194.1</t>
+  </si>
+  <si>
+    <t>232.67</t>
+  </si>
+  <si>
+    <t>272.8</t>
+  </si>
+  <si>
+    <t>311.07</t>
+  </si>
+  <si>
+    <t>351.3</t>
+  </si>
+  <si>
+    <t>391.2</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>472.83</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>109.73</t>
+  </si>
+  <si>
+    <t>145.5</t>
+  </si>
+  <si>
+    <t>182.63</t>
+  </si>
+  <si>
+    <t>218.83</t>
+  </si>
+  <si>
+    <t>256.77</t>
+  </si>
+  <si>
+    <t>294.4</t>
+  </si>
+  <si>
+    <t>332.03</t>
+  </si>
+  <si>
+    <t>369.13</t>
+  </si>
+  <si>
+    <t>408.2</t>
+  </si>
+  <si>
+    <t>445.87</t>
+  </si>
+  <si>
+    <t>34.63</t>
+  </si>
+  <si>
+    <t>68.2</t>
+  </si>
+  <si>
+    <t>102.17</t>
+  </si>
+  <si>
+    <t>138.07</t>
+  </si>
+  <si>
+    <t>172.63</t>
+  </si>
+  <si>
+    <t>207.17</t>
+  </si>
+  <si>
+    <t>242.33</t>
+  </si>
+  <si>
+    <t>311.97</t>
+  </si>
+  <si>
+    <t>348.23</t>
+  </si>
+  <si>
+    <t>385.03</t>
+  </si>
+  <si>
+    <t>421.43</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>64.47</t>
+  </si>
+  <si>
+    <t>97.47</t>
+  </si>
+  <si>
+    <t>129.13</t>
+  </si>
+  <si>
+    <t>161.83</t>
+  </si>
+  <si>
+    <t>195.83</t>
+  </si>
+  <si>
+    <t>228.1</t>
+  </si>
+  <si>
+    <t>262.37</t>
+  </si>
+  <si>
+    <t>294.97</t>
+  </si>
+  <si>
+    <t>363.5</t>
+  </si>
+  <si>
+    <t>398.9</t>
+  </si>
+  <si>
+    <t>30.47</t>
+  </si>
+  <si>
+    <t>61.8</t>
+  </si>
+  <si>
+    <t>91.47</t>
+  </si>
+  <si>
+    <t>123.23</t>
+  </si>
+  <si>
+    <t>154.63</t>
+  </si>
+  <si>
+    <t>185.23</t>
+  </si>
+  <si>
+    <t>215.87</t>
+  </si>
+  <si>
+    <t>247.03</t>
+  </si>
+  <si>
+    <t>278.77</t>
+  </si>
+  <si>
+    <t>310.8</t>
+  </si>
+  <si>
+    <t>343.83</t>
+  </si>
+  <si>
+    <t>375.97</t>
+  </si>
+  <si>
+    <t>466.27</t>
+  </si>
+  <si>
+    <t>1403.23</t>
+  </si>
+  <si>
+    <t>1876.37</t>
+  </si>
+  <si>
+    <t>2352.7</t>
+  </si>
+  <si>
+    <t>2800.97</t>
+  </si>
+  <si>
+    <t>494.67</t>
+  </si>
+  <si>
+    <t>990.33</t>
+  </si>
+  <si>
+    <t>1488.0</t>
+  </si>
+  <si>
+    <t>1894.9</t>
+  </si>
+  <si>
+    <t>2499.87</t>
+  </si>
+  <si>
+    <t>2899.37</t>
+  </si>
+  <si>
+    <t>523.33</t>
+  </si>
+  <si>
+    <t>1047.2</t>
+  </si>
+  <si>
+    <t>1574.4</t>
+  </si>
+  <si>
+    <t>2106.37</t>
+  </si>
+  <si>
+    <t>2642.83</t>
+  </si>
+  <si>
+    <t>3182.93</t>
+  </si>
+  <si>
+    <t>554.53</t>
+  </si>
+  <si>
+    <t>1110.2</t>
+  </si>
+  <si>
+    <t>1668.27</t>
+  </si>
+  <si>
+    <t>2232.17</t>
+  </si>
+  <si>
+    <t>2803.63</t>
+  </si>
+  <si>
+    <t>3377.77</t>
+  </si>
+  <si>
+    <t>587.7</t>
+  </si>
+  <si>
+    <t>1177.43</t>
+  </si>
+  <si>
+    <t>1771.27</t>
+  </si>
+  <si>
+    <t>2369.33</t>
+  </si>
+  <si>
+    <t>2975.63</t>
+  </si>
+  <si>
+    <t>3589.97</t>
+  </si>
+  <si>
+    <t>1248.57</t>
+  </si>
+  <si>
+    <t>1875.9</t>
+  </si>
+  <si>
+    <t>2512.27</t>
+  </si>
+  <si>
+    <t>3153.7</t>
+  </si>
+  <si>
+    <t>3800.97</t>
+  </si>
+  <si>
+    <t>659.7</t>
+  </si>
+  <si>
+    <t>1321.5</t>
+  </si>
+  <si>
+    <t>1987.57</t>
+  </si>
+  <si>
+    <t>2660.4</t>
+  </si>
+  <si>
+    <t>3341.6</t>
+  </si>
+  <si>
+    <t>3975.1</t>
+  </si>
+  <si>
+    <t>699.43</t>
+  </si>
+  <si>
+    <t>1403.07</t>
+  </si>
+  <si>
+    <t>2111.1</t>
+  </si>
+  <si>
+    <t>2826.97</t>
+  </si>
+  <si>
+    <t>3557.7</t>
+  </si>
+  <si>
+    <t>4126.77</t>
+  </si>
+  <si>
+    <t>741.6</t>
+  </si>
+  <si>
+    <t>1485.23</t>
+  </si>
+  <si>
+    <t>2236.23</t>
+  </si>
+  <si>
+    <t>3001.5</t>
+  </si>
+  <si>
+    <t>3770.17</t>
+  </si>
+  <si>
+    <t>4564.6</t>
+  </si>
+  <si>
+    <t>785.7</t>
+  </si>
+  <si>
+    <t>1574.63</t>
+  </si>
+  <si>
+    <t>2369.6</t>
+  </si>
+  <si>
+    <t>3082.4</t>
+  </si>
+  <si>
+    <t>3859.73</t>
+  </si>
+  <si>
+    <t>4656.57</t>
+  </si>
+  <si>
+    <t>831.47</t>
+  </si>
+  <si>
+    <t>1667.33</t>
+  </si>
+  <si>
+    <t>2514.33</t>
+  </si>
+  <si>
+    <t>3372.03</t>
+  </si>
+  <si>
+    <t>4451.77</t>
+  </si>
+  <si>
+    <t>5202.8</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>1767.4</t>
+  </si>
+  <si>
+    <t>2665.87</t>
+  </si>
+  <si>
+    <t>3576.47</t>
+  </si>
+  <si>
+    <t>4510.07</t>
+  </si>
+  <si>
+    <t>5318.5</t>
+  </si>
+  <si>
+    <t>935.2</t>
+  </si>
+  <si>
+    <t>1871.17</t>
+  </si>
+  <si>
+    <t>2824.5</t>
+  </si>
+  <si>
+    <t>3800.13</t>
+  </si>
+  <si>
+    <t>4792.6</t>
+  </si>
+  <si>
+    <t>5813.57</t>
+  </si>
+  <si>
+    <t>990.23</t>
+  </si>
+  <si>
+    <t>1986.53</t>
+  </si>
+  <si>
+    <t>2996.2</t>
+  </si>
+  <si>
+    <t>4032.6</t>
+  </si>
+  <si>
+    <t>5090.83</t>
+  </si>
+  <si>
+    <t>6183.7</t>
+  </si>
+  <si>
+    <t>1047.7</t>
+  </si>
+  <si>
+    <t>2106.4</t>
+  </si>
+  <si>
+    <t>3171.3</t>
+  </si>
+  <si>
+    <t>4264.33</t>
+  </si>
+  <si>
+    <t>5386.03</t>
+  </si>
+  <si>
+    <t>6544.6</t>
+  </si>
+  <si>
+    <t>1110.53</t>
+  </si>
+  <si>
+    <t>2230.73</t>
+  </si>
+  <si>
+    <t>3402.13</t>
+  </si>
+  <si>
+    <t>4352.73</t>
+  </si>
+  <si>
+    <t>5853.77</t>
+  </si>
+  <si>
+    <t>7155.17</t>
+  </si>
+  <si>
+    <t>1178.1</t>
+  </si>
+  <si>
+    <t>2371.03</t>
+  </si>
+  <si>
+    <t>4952.07</t>
+  </si>
+  <si>
+    <t>6335.3</t>
+  </si>
+  <si>
+    <t>7713.33</t>
+  </si>
+  <si>
+    <t>1248.5</t>
+  </si>
+  <si>
+    <t>2511.17</t>
+  </si>
+  <si>
+    <t>3793.93</t>
+  </si>
+  <si>
+    <t>5302.43</t>
+  </si>
+  <si>
+    <t>6352.8</t>
+  </si>
+  <si>
+    <t>7890.53</t>
+  </si>
+  <si>
+    <t>1324.47</t>
+  </si>
+  <si>
+    <t>2661.17</t>
+  </si>
+  <si>
+    <t>4028.8</t>
+  </si>
+  <si>
+    <t>5432.27</t>
+  </si>
+  <si>
+    <t>6904.93</t>
+  </si>
+  <si>
+    <t>8422.97</t>
+  </si>
+  <si>
+    <t>1485.43</t>
+  </si>
+  <si>
+    <t>2988.1</t>
+  </si>
+  <si>
+    <t>4535.23</t>
+  </si>
+  <si>
+    <t>6123.43</t>
+  </si>
+  <si>
+    <t>7766.6</t>
+  </si>
+  <si>
+    <t>9247.47</t>
+  </si>
+  <si>
+    <t>1400.7</t>
+  </si>
+  <si>
+    <t>2823.13</t>
+  </si>
+  <si>
+    <t>4201.5</t>
+  </si>
+  <si>
+    <t>5551.7</t>
+  </si>
+  <si>
+    <t>7665.5</t>
+  </si>
+  <si>
+    <t>8983.0</t>
+  </si>
+  <si>
+    <t>1575.73</t>
+  </si>
+  <si>
+    <t>3166.73</t>
+  </si>
+  <si>
+    <t>4811.97</t>
+  </si>
+  <si>
+    <t>6515.57</t>
+  </si>
+  <si>
+    <t>8268.03</t>
+  </si>
+  <si>
+    <t>10211.23</t>
+  </si>
+  <si>
+    <t>1670.33</t>
+  </si>
+  <si>
+    <t>3339.5</t>
+  </si>
+  <si>
+    <t>5045.17</t>
+  </si>
+  <si>
+    <t>6907.07</t>
+  </si>
+  <si>
+    <t>9048.47</t>
+  </si>
+  <si>
+    <t>10779.6</t>
+  </si>
+  <si>
+    <t>1773.2</t>
+  </si>
+  <si>
+    <t>3563.83</t>
+  </si>
+  <si>
+    <t>5427.77</t>
+  </si>
+  <si>
+    <t>7364.2</t>
+  </si>
+  <si>
+    <t>9711.8</t>
+  </si>
+  <si>
+    <t>11615.87</t>
+  </si>
+  <si>
+    <t>1879.63</t>
+  </si>
+  <si>
+    <t>3796.7</t>
+  </si>
+  <si>
+    <t>5759.03</t>
+  </si>
+  <si>
+    <t>7842.63</t>
+  </si>
+  <si>
+    <t>10136.1</t>
+  </si>
+  <si>
+    <t>12411.7</t>
+  </si>
+  <si>
+    <t>1993.7</t>
+  </si>
+  <si>
+    <t>4023.43</t>
+  </si>
+  <si>
+    <t>6137.7</t>
+  </si>
+  <si>
+    <t>8311.57</t>
+  </si>
+  <si>
+    <t>10744.93</t>
+  </si>
+  <si>
+    <t>13196.57</t>
+  </si>
+  <si>
+    <t>2115.0</t>
+  </si>
+  <si>
+    <t>4247.83</t>
+  </si>
+  <si>
+    <t>6489.17</t>
+  </si>
+  <si>
+    <t>8899.37</t>
+  </si>
+  <si>
+    <t>11423.3</t>
+  </si>
+  <si>
+    <t>14019.07</t>
+  </si>
+  <si>
+    <t>2233.77</t>
+  </si>
+  <si>
+    <t>4499.57</t>
+  </si>
+  <si>
+    <t>6887.73</t>
+  </si>
+  <si>
+    <t>9296.57</t>
+  </si>
+  <si>
+    <t>12150.67</t>
+  </si>
+  <si>
+    <t>14986.9</t>
+  </si>
+  <si>
+    <t>2364.2</t>
+  </si>
+  <si>
+    <t>4802.27</t>
+  </si>
+  <si>
+    <t>7324.9</t>
+  </si>
+  <si>
+    <t>10162.47</t>
+  </si>
+  <si>
+    <t>12970.8</t>
+  </si>
+  <si>
+    <t>15542.2</t>
+  </si>
+  <si>
+    <t>2511.27</t>
+  </si>
+  <si>
+    <t>5090.6</t>
+  </si>
+  <si>
+    <t>7770.53</t>
+  </si>
+  <si>
+    <t>9932.37</t>
+  </si>
+  <si>
+    <t>13867.7</t>
+  </si>
+  <si>
+    <t>15981.57</t>
+  </si>
+  <si>
+    <t>2659.17</t>
+  </si>
+  <si>
+    <t>5391.6</t>
+  </si>
+  <si>
+    <t>8275.07</t>
+  </si>
+  <si>
+    <t>11422.97</t>
+  </si>
+  <si>
+    <t>13702.93</t>
+  </si>
+  <si>
+    <t>17122.8</t>
+  </si>
+  <si>
+    <t>2824.07</t>
+  </si>
+  <si>
+    <t>5648.7</t>
+  </si>
+  <si>
+    <t>8224.57</t>
+  </si>
+  <si>
+    <t>12097.37</t>
+  </si>
+  <si>
+    <t>15631.27</t>
+  </si>
+  <si>
+    <t>19863.37</t>
+  </si>
+  <si>
+    <t>2991.7</t>
+  </si>
+  <si>
+    <t>5749.83</t>
+  </si>
+  <si>
+    <t>10079.3</t>
+  </si>
+  <si>
+    <t>12098.1</t>
+  </si>
+  <si>
+    <t>17738.33</t>
+  </si>
+  <si>
+    <t>20060.97</t>
+  </si>
+  <si>
+    <t>3179.2</t>
+  </si>
+  <si>
+    <t>6328.63</t>
+  </si>
+  <si>
+    <t>10168.2</t>
+  </si>
+  <si>
+    <t>13265.17</t>
+  </si>
+  <si>
+    <t>16831.37</t>
+  </si>
+  <si>
+    <t>21479.1</t>
+  </si>
+  <si>
+    <t>3344.73</t>
+  </si>
+  <si>
+    <t>6815.57</t>
+  </si>
+  <si>
+    <t>9739.87</t>
+  </si>
+  <si>
+    <t>14667.63</t>
+  </si>
+  <si>
+    <t>19844.33</t>
+  </si>
+  <si>
+    <t>23250.0</t>
+  </si>
+  <si>
+    <t>3575.6</t>
+  </si>
+  <si>
+    <t>7890.8</t>
+  </si>
+  <si>
+    <t>12097.23</t>
+  </si>
+  <si>
+    <t>17128.83</t>
+  </si>
+  <si>
+    <t>19844.13</t>
+  </si>
+  <si>
+    <t>25216.63</t>
+  </si>
+  <si>
+    <t>3792.53</t>
+  </si>
+  <si>
+    <t>7679.57</t>
+  </si>
+  <si>
+    <t>12157.93</t>
+  </si>
+  <si>
+    <t>15931.13</t>
+  </si>
+  <si>
+    <t>20893.9</t>
+  </si>
+  <si>
+    <t>27405.43</t>
+  </si>
+  <si>
+    <t>3991.9</t>
+  </si>
+  <si>
+    <t>8167.57</t>
+  </si>
+  <si>
+    <t>12718.53</t>
+  </si>
+  <si>
+    <t>17813.37</t>
+  </si>
+  <si>
+    <t>22576.8</t>
+  </si>
+  <si>
+    <t>29858.23</t>
+  </si>
+  <si>
+    <t>4231.97</t>
+  </si>
+  <si>
+    <t>8643.7</t>
+  </si>
+  <si>
+    <t>13527.23</t>
+  </si>
+  <si>
+    <t>18957.7</t>
+  </si>
+  <si>
+    <t>24435.67</t>
+  </si>
+  <si>
+    <t>32607.23</t>
   </si>
 </sst>
 </file>
@@ -6591,7 +8431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED0E679-E71E-6644-8AC9-3191F6B0887F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -6768,6 +8608,2361 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C918E675-4F9F-D04C-BC19-95818CE7E5CC}">
+  <dimension ref="A1:M87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" t="s">
+        <v>369</v>
+      </c>
+      <c r="M4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K5" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" t="s">
+        <v>358</v>
+      </c>
+      <c r="M5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" t="s">
+        <v>260</v>
+      </c>
+      <c r="M14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" t="s">
+        <v>400</v>
+      </c>
+      <c r="D50" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" t="s">
+        <v>402</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" t="s">
+        <v>408</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>411</v>
+      </c>
+      <c r="C52" t="s">
+        <v>412</v>
+      </c>
+      <c r="D52" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" t="s">
+        <v>414</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" t="s">
+        <v>418</v>
+      </c>
+      <c r="D53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" t="s">
+        <v>424</v>
+      </c>
+      <c r="E54" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" t="s">
+        <v>429</v>
+      </c>
+      <c r="D55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E55" t="s">
+        <v>431</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
+      <c r="D56" t="s">
+        <v>436</v>
+      </c>
+      <c r="E56" t="s">
+        <v>437</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>440</v>
+      </c>
+      <c r="C57" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" t="s">
+        <v>443</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>446</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" t="s">
+        <v>448</v>
+      </c>
+      <c r="E58" t="s">
+        <v>449</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" t="s">
+        <v>453</v>
+      </c>
+      <c r="D59" t="s">
+        <v>454</v>
+      </c>
+      <c r="E59" t="s">
+        <v>455</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>458</v>
+      </c>
+      <c r="C60" t="s">
+        <v>459</v>
+      </c>
+      <c r="D60" t="s">
+        <v>460</v>
+      </c>
+      <c r="E60" t="s">
+        <v>461</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" t="s">
+        <v>465</v>
+      </c>
+      <c r="D61" t="s">
+        <v>466</v>
+      </c>
+      <c r="E61" t="s">
+        <v>467</v>
+      </c>
+      <c r="F61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>470</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E62" t="s">
+        <v>473</v>
+      </c>
+      <c r="F62" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D63" t="s">
+        <v>478</v>
+      </c>
+      <c r="E63" t="s">
+        <v>479</v>
+      </c>
+      <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>482</v>
+      </c>
+      <c r="C64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" t="s">
+        <v>485</v>
+      </c>
+      <c r="F64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>488</v>
+      </c>
+      <c r="C65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" t="s">
+        <v>484</v>
+      </c>
+      <c r="E65" t="s">
+        <v>490</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C66" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" t="s">
+        <v>495</v>
+      </c>
+      <c r="E66" t="s">
+        <v>496</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C67" t="s">
+        <v>500</v>
+      </c>
+      <c r="D67" t="s">
+        <v>501</v>
+      </c>
+      <c r="E67" t="s">
+        <v>502</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E68" t="s">
+        <v>514</v>
+      </c>
+      <c r="F68" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>505</v>
+      </c>
+      <c r="C69" t="s">
+        <v>506</v>
+      </c>
+      <c r="D69" t="s">
+        <v>507</v>
+      </c>
+      <c r="E69" t="s">
+        <v>508</v>
+      </c>
+      <c r="F69" t="s">
+        <v>509</v>
+      </c>
+      <c r="G69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>517</v>
+      </c>
+      <c r="C70" t="s">
+        <v>518</v>
+      </c>
+      <c r="D70" t="s">
+        <v>519</v>
+      </c>
+      <c r="E70" t="s">
+        <v>520</v>
+      </c>
+      <c r="F70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>523</v>
+      </c>
+      <c r="C71" t="s">
+        <v>524</v>
+      </c>
+      <c r="D71" t="s">
+        <v>525</v>
+      </c>
+      <c r="E71" t="s">
+        <v>526</v>
+      </c>
+      <c r="F71" t="s">
+        <v>527</v>
+      </c>
+      <c r="G71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>529</v>
+      </c>
+      <c r="C72" t="s">
+        <v>530</v>
+      </c>
+      <c r="D72" t="s">
+        <v>531</v>
+      </c>
+      <c r="E72" t="s">
+        <v>532</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>535</v>
+      </c>
+      <c r="C73" t="s">
+        <v>536</v>
+      </c>
+      <c r="D73" t="s">
+        <v>537</v>
+      </c>
+      <c r="E73" t="s">
+        <v>538</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" t="s">
+        <v>542</v>
+      </c>
+      <c r="D74" t="s">
+        <v>543</v>
+      </c>
+      <c r="E74" t="s">
+        <v>544</v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>547</v>
+      </c>
+      <c r="C75" t="s">
+        <v>548</v>
+      </c>
+      <c r="D75" t="s">
+        <v>549</v>
+      </c>
+      <c r="E75" t="s">
+        <v>550</v>
+      </c>
+      <c r="F75" t="s">
+        <v>551</v>
+      </c>
+      <c r="G75" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>553</v>
+      </c>
+      <c r="C76" t="s">
+        <v>554</v>
+      </c>
+      <c r="D76" t="s">
+        <v>555</v>
+      </c>
+      <c r="E76" t="s">
+        <v>556</v>
+      </c>
+      <c r="F76" t="s">
+        <v>557</v>
+      </c>
+      <c r="G76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>559</v>
+      </c>
+      <c r="C77" t="s">
+        <v>560</v>
+      </c>
+      <c r="D77" t="s">
+        <v>561</v>
+      </c>
+      <c r="E77" t="s">
+        <v>562</v>
+      </c>
+      <c r="F77" t="s">
+        <v>563</v>
+      </c>
+      <c r="G77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>565</v>
+      </c>
+      <c r="C78" t="s">
+        <v>566</v>
+      </c>
+      <c r="D78" t="s">
+        <v>567</v>
+      </c>
+      <c r="E78" t="s">
+        <v>568</v>
+      </c>
+      <c r="F78" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>571</v>
+      </c>
+      <c r="C79" t="s">
+        <v>572</v>
+      </c>
+      <c r="D79" t="s">
+        <v>573</v>
+      </c>
+      <c r="E79" t="s">
+        <v>574</v>
+      </c>
+      <c r="F79" t="s">
+        <v>575</v>
+      </c>
+      <c r="G79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C80" t="s">
+        <v>578</v>
+      </c>
+      <c r="D80" t="s">
+        <v>579</v>
+      </c>
+      <c r="E80" t="s">
+        <v>580</v>
+      </c>
+      <c r="F80" t="s">
+        <v>581</v>
+      </c>
+      <c r="G80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>583</v>
+      </c>
+      <c r="C81" t="s">
+        <v>584</v>
+      </c>
+      <c r="D81" t="s">
+        <v>585</v>
+      </c>
+      <c r="E81" t="s">
+        <v>586</v>
+      </c>
+      <c r="F81" t="s">
+        <v>587</v>
+      </c>
+      <c r="G81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>589</v>
+      </c>
+      <c r="C82" t="s">
+        <v>590</v>
+      </c>
+      <c r="D82" t="s">
+        <v>591</v>
+      </c>
+      <c r="E82" t="s">
+        <v>592</v>
+      </c>
+      <c r="F82" t="s">
+        <v>593</v>
+      </c>
+      <c r="G82" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>595</v>
+      </c>
+      <c r="C83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D83" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" t="s">
+        <v>598</v>
+      </c>
+      <c r="F83" t="s">
+        <v>599</v>
+      </c>
+      <c r="G83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>601</v>
+      </c>
+      <c r="C84" t="s">
+        <v>602</v>
+      </c>
+      <c r="D84" t="s">
+        <v>603</v>
+      </c>
+      <c r="E84" t="s">
+        <v>604</v>
+      </c>
+      <c r="F84" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>607</v>
+      </c>
+      <c r="C85" t="s">
+        <v>608</v>
+      </c>
+      <c r="D85" t="s">
+        <v>609</v>
+      </c>
+      <c r="E85" t="s">
+        <v>610</v>
+      </c>
+      <c r="F85" t="s">
+        <v>611</v>
+      </c>
+      <c r="G85" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>613</v>
+      </c>
+      <c r="C86" t="s">
+        <v>614</v>
+      </c>
+      <c r="D86" t="s">
+        <v>615</v>
+      </c>
+      <c r="E86" t="s">
+        <v>616</v>
+      </c>
+      <c r="F86" t="s">
+        <v>617</v>
+      </c>
+      <c r="G86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>619</v>
+      </c>
+      <c r="C87" t="s">
+        <v>620</v>
+      </c>
+      <c r="D87" t="s">
+        <v>621</v>
+      </c>
+      <c r="E87" t="s">
+        <v>622</v>
+      </c>
+      <c r="F87" t="s">
+        <v>623</v>
+      </c>
+      <c r="G87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
